--- a/data/trans_dic/P27C_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P27C_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -476,7 +477,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -497,7 +498,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que no pudo recibir consulta con algún médico por algún problema, molestia o enfermedad en las últimas dos semanas</t>
+          <t>Población que ha acudido a un centro de salud o ambulatorio en las dos últimas semanas (tasa de respuesta: 99,9%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -556,17 +557,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>84,29%</t>
+          <t>15,71%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>65,65%</t>
+          <t>34,36%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>75,47%</t>
+          <t>24,53%</t>
         </is>
       </c>
     </row>
@@ -579,17 +580,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>77,15; 90,32</t>
+          <t>9,93; 24,54</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>56,18; 74,63</t>
+          <t>25,56; 43,72</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>68,85; 80,42</t>
+          <t>18,96; 30,97</t>
         </is>
       </c>
     </row>
@@ -606,17 +607,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>81,77%</t>
+          <t>18,23%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>70,99%</t>
+          <t>29,02%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>76,53%</t>
+          <t>23,47%</t>
         </is>
       </c>
     </row>
@@ -629,17 +630,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>73,84; 88,05</t>
+          <t>12,11; 26,04</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>63,82; 77,2</t>
+          <t>22,66; 36,32</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>71,28; 81,59</t>
+          <t>18,51; 28,91</t>
         </is>
       </c>
     </row>
@@ -656,17 +657,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>77,63%</t>
+          <t>22,38%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>70,07%</t>
+          <t>29,94%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>74,05%</t>
+          <t>25,96%</t>
         </is>
       </c>
     </row>
@@ -679,17 +680,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>70,89; 83,19</t>
+          <t>16,56; 28,93</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>64,03; 75,61</t>
+          <t>24,57; 35,92</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>69,57; 77,97</t>
+          <t>21,71; 30,17</t>
         </is>
       </c>
     </row>
@@ -706,17 +707,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>79,5%</t>
+          <t>20,5%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>63,66%</t>
+          <t>36,35%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>72,0%</t>
+          <t>28,01%</t>
         </is>
       </c>
     </row>
@@ -729,17 +730,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>72,63; 84,89</t>
+          <t>15,24; 27,01</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>57,02; 70,12</t>
+          <t>30,04; 43,68</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>67,11; 76,02</t>
+          <t>23,7; 32,94</t>
         </is>
       </c>
     </row>
@@ -756,17 +757,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>63,43%</t>
+          <t>36,57%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>59,74%</t>
+          <t>40,26%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>61,5%</t>
+          <t>38,5%</t>
         </is>
       </c>
     </row>
@@ -779,17 +780,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>55,59; 70,78</t>
+          <t>29,8; 44,53</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>53,26; 66,14</t>
+          <t>33,66; 46,62</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>56,43; 66,66</t>
+          <t>34,22; 43,63</t>
         </is>
       </c>
     </row>
@@ -806,17 +807,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>73,0%</t>
+          <t>27,0%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>66,14%</t>
+          <t>33,84%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>69,06%</t>
+          <t>30,93%</t>
         </is>
       </c>
     </row>
@@ -829,17 +830,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>64,67; 80,09</t>
+          <t>20,24; 35,36</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>56,66; 74,61</t>
+          <t>25,72; 44,32</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>62,29; 75,05</t>
+          <t>24,98; 36,58</t>
         </is>
       </c>
     </row>
@@ -856,17 +857,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>76,78%</t>
+          <t>23,22%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>66,07%</t>
+          <t>33,93%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>71,41%</t>
+          <t>28,59%</t>
         </is>
       </c>
     </row>
@@ -879,17 +880,24 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>74,0; 79,45</t>
+          <t>20,59; 26,31</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>63,06; 69,14</t>
+          <t>30,98; 37,22</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>69,44; 73,28</t>
+          <t>26,57; 30,79</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -906,4 +914,610 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha acudido a un centro de salud o ambulatorio en las dos últimas semanas (tasa de respuesta: 99,9%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>6547</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>12849</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>19396</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>4140; 10229</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>9559; 16351</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>14989; 24486</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>71.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>9091</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>13698</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>22789</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>6041; 12989</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>10695; 17144</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>17972; 28067</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>75.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>121.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>13411</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>16141</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>29552</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>9924; 17340</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>13246; 19368</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>24712; 34353</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>84.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>123.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>11945</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>19058</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>31004</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>8882; 15739</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>15747; 22901</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>26234; 36464</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>86.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>148.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>16270</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>19636</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>35906</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>13258; 19809</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>16418; 22736</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>31915; 40686</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>79.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>12646</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>21370</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>34016</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>9479; 16560</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>16242; 27983</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>27468; 40229</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>222.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>373.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>595.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>69910</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>102752</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>172662</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>61984; 79203</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>93820; 112719</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>160477; 185981</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>